--- a/data/trans_camb/P2A_fisi_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P2A_fisi_R-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-2.583358641162971</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6.734427701524097</v>
+        <v>6.734427701524099</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-0.2759152840319634</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.677641580788781</v>
+        <v>-3.438232049247615</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.659941472205069</v>
+        <v>-5.706257610368334</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.777268631438548</v>
+        <v>2.640965071483603</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.147967623610481</v>
+        <v>-3.246074020821677</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.211210500164868</v>
+        <v>-4.290118224236799</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>4.170067805991084</v>
+        <v>4.263075776327203</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.477557151023561</v>
+        <v>-2.460705621525462</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-4.061448576649278</v>
+        <v>-4.194203583364084</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>4.599704106205336</v>
+        <v>4.502233848828125</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.853680961630186</v>
+        <v>2.989690388310292</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1404564101960847</v>
+        <v>0.3161050608838112</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.27450230771947</v>
+        <v>10.64069674935892</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.620358680869245</v>
+        <v>2.585740277952783</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.110882614292021</v>
+        <v>0.9422613183720417</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>11.19611965636473</v>
+        <v>10.83565261242598</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.619133976111234</v>
+        <v>1.653292879878841</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-0.2302040541975366</v>
+        <v>-0.2455895071808813</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>9.839206837667936</v>
+        <v>9.696282505059308</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.2619765703078986</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.6829335439997427</v>
+        <v>0.6829335439997429</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.02593326060108516</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3135740668822574</v>
+        <v>-0.2963957903807368</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4631492783210753</v>
+        <v>-0.4785261860468421</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.2313365427946082</v>
+        <v>0.2086957980010973</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.257406160677391</v>
+        <v>-0.2610502931130033</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3487819879921605</v>
+        <v>-0.3468193288732521</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3404852246625887</v>
+        <v>0.356236336918258</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2195221716691612</v>
+        <v>-0.2172397935898854</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3563367641963267</v>
+        <v>-0.3577255251796698</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.4032267942155425</v>
+        <v>0.3945916372247677</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3610647783436113</v>
+        <v>0.3972880597778581</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.02007381682908449</v>
+        <v>0.04594884197865043</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.416584774421456</v>
+        <v>1.287425371043994</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2868718503015821</v>
+        <v>0.2844697162108045</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1230591520330193</v>
+        <v>0.1090503951546299</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.220130187520457</v>
+        <v>1.151985410571499</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1808824662615656</v>
+        <v>0.1794695948268093</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.02612857257462858</v>
+        <v>-0.02130006976762983</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.094890285583552</v>
+        <v>1.055251420671526</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>1.297990710815827</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>8.444443795049864</v>
+        <v>8.444443795049866</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>3.884869670883472</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4308847469638126</v>
+        <v>0.6551674906195338</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.689129788978627</v>
+        <v>-2.722246909840781</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5.931105697444075</v>
+        <v>5.451778746656371</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.611960089667516</v>
+        <v>2.90640754163053</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.5902750436770641</v>
+        <v>-0.613934725042112</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>6.220978829200858</v>
+        <v>6.386705172623514</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.309874159563361</v>
+        <v>2.158617523327932</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.176520191477336</v>
+        <v>-1.157595091007496</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>6.701788487092979</v>
+        <v>6.742575826911431</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.329466795551049</v>
+        <v>5.46769131667412</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.146366019723385</v>
+        <v>1.012901315766846</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.22297718368137</v>
+        <v>11.28032526673848</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.139236825338102</v>
+        <v>7.370145385608412</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.653817406848509</v>
+        <v>3.493912170674384</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>10.4670906722604</v>
+        <v>10.52573028805067</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.729730083398387</v>
+        <v>5.430250319347444</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.635928959022322</v>
+        <v>1.651652682921333</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>10.34196655589584</v>
+        <v>10.15174455969906</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.2689772298751434</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>1.749907053187795</v>
+        <v>1.749907053187796</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.7616043879867171</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.06595416717612122</v>
+        <v>0.09771534753737671</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4273046498252122</v>
+        <v>-0.4238595127986297</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.9195330615290989</v>
+        <v>0.8209170748710654</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.4463015796024289</v>
+        <v>0.4780738264531791</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1204432015779033</v>
+        <v>-0.1057504283396976</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.010629543667076</v>
+        <v>1.070434985009958</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3884657331161325</v>
+        <v>0.3691419567919703</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2049288064803549</v>
+        <v>-0.1941123623673557</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1.133975201986209</v>
+        <v>1.149583021673119</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.227008721652099</v>
+        <v>1.267265225343807</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.275727153912863</v>
+        <v>0.2496192953703101</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.616339709773338</v>
+        <v>2.495349448521391</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.895774832932447</v>
+        <v>1.91983707644121</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9465774096835611</v>
+        <v>0.9341539569935657</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.672017684873591</v>
+        <v>2.773036562243594</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.296210914804025</v>
+        <v>1.223870906937875</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3739771590646715</v>
+        <v>0.3672696857400104</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2.351857045257083</v>
+        <v>2.284815350094907</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>0.6825691988520746</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>3.883839695242935</v>
+        <v>3.883839695242937</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>2.434582241604525</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8745065256522327</v>
+        <v>0.8471225969370744</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03265769801069828</v>
+        <v>0.1268137236068203</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.301854763245732</v>
+        <v>3.331597444580088</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03633145523941572</v>
+        <v>-0.2207837035727848</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.437854321717508</v>
+        <v>-1.304159143778502</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.914423074061088</v>
+        <v>1.727205635659415</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9910987473139751</v>
+        <v>1.126459452761286</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.1077978321102719</v>
+        <v>0.01044111703669051</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.281512437135375</v>
+        <v>3.277412192509898</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.571657611725807</v>
+        <v>4.562465227800383</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.622182916512326</v>
+        <v>3.746631489231252</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.427588229278069</v>
+        <v>7.167868805026005</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.267458913383273</v>
+        <v>4.132589468642608</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.938298006108711</v>
+        <v>2.586585609110481</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.728319982093218</v>
+        <v>5.751404036068736</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.903564249738426</v>
+        <v>3.921077614545027</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.673383829808811</v>
+        <v>2.893342930496813</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.156082534090883</v>
+        <v>6.012530882998048</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.1541146578142463</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8769171340347424</v>
+        <v>0.876917134034743</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.6741655045977966</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.2201848517499965</v>
+        <v>0.2323869117784758</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.006649262897622675</v>
+        <v>0.01034878612318912</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.9151106033357255</v>
+        <v>0.9341618303420824</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.009471434454760458</v>
+        <v>-0.04858864130240931</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2850424490114939</v>
+        <v>-0.2708094654742722</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3262937495759324</v>
+        <v>0.3145887529324824</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2128751629138677</v>
+        <v>0.2752360069634822</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.02267435114525539</v>
+        <v>-0.0006374074214079617</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.7470954398273005</v>
+        <v>0.7805929272863134</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.01679732817342</v>
+        <v>2.049828354753605</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.544887693928119</v>
+        <v>1.752804315816171</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3.569937902623095</v>
+        <v>3.269333772772723</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.184693009912214</v>
+        <v>1.124036892327011</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.8226567018443132</v>
+        <v>0.7275474483189992</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.703182085089021</v>
+        <v>1.685097895446689</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.25062724909258</v>
+        <v>1.321218693568725</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.8742850720683889</v>
+        <v>0.9747002128285102</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>2.043510324445858</v>
+        <v>1.983601908267652</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>2.192722348817449</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>5.014058627934639</v>
+        <v>5.014058627934637</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.6700058328651601</v>
+        <v>-0.783998292771693</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.2985072467213721</v>
+        <v>-0.2164171392717777</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.833088749773746</v>
+        <v>3.10285495265988</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.53262587204321</v>
+        <v>1.619118516012756</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.091103579710057</v>
+        <v>-1.277682884669546</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1.366441782255372</v>
+        <v>1.520106712267169</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.179591760590993</v>
+        <v>1.226431385839522</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1976185809584837</v>
+        <v>0.1442282093445225</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>3.257199432657439</v>
+        <v>3.222538251491643</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.450518895731885</v>
+        <v>4.459362523456542</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.578590969496322</v>
+        <v>4.597233317132946</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.913460930961884</v>
+        <v>7.712471658693514</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.46682678456342</v>
+        <v>8.578629986983559</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.115700781067456</v>
+        <v>4.976215011048469</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.451329882563139</v>
+        <v>6.62809162812657</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.812012377430924</v>
+        <v>5.382028439867657</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.012761281478406</v>
+        <v>4.20183779898451</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>6.710846486523528</v>
+        <v>6.588331816723016</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.6937731330932562</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>1.586438504488054</v>
+        <v>1.586438504488053</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2363836681621847</v>
+        <v>-0.2737368198595747</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1424232474510099</v>
+        <v>-0.09352240375975766</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.6538567027269506</v>
+        <v>0.6759933468859094</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1795334047684915</v>
+        <v>0.2318455683778651</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2146457643177238</v>
+        <v>-0.2471627001791415</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1883876222237706</v>
+        <v>0.2133900948951512</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2446139223337981</v>
+        <v>0.3066080434599553</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.04752130393894705</v>
+        <v>0.01699558009419444</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.7450411742510977</v>
+        <v>0.7420997198093947</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.913556749964023</v>
+        <v>2.817438741320015</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.917569672687691</v>
+        <v>3.024742849894468</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>5.354830622813228</v>
+        <v>5.255670577073472</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>3.253365753249672</v>
+        <v>3.497683576041846</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.995608207914171</v>
+        <v>2.080147158606607</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.797330959960762</v>
+        <v>2.974461660780873</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>2.441270072991293</v>
+        <v>2.190835127259766</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.717506661359665</v>
+        <v>1.816120167409396</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>3.169290361893317</v>
+        <v>3.022719694260107</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>0.6731156385632576</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>5.20319600240229</v>
+        <v>5.203196002402292</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>2.600631622612798</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.060218356646896</v>
+        <v>1.250346982758253</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.4411944521617323</v>
+        <v>-0.4899768836989042</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4.791077547959212</v>
+        <v>4.67636289806951</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.525326509033344</v>
+        <v>1.555043135479232</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.6296278712194503</v>
+        <v>-0.4928727382844574</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>3.971127255037885</v>
+        <v>3.981888384577192</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1.69547933962371</v>
+        <v>1.662802970442159</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.1770354505264532</v>
+        <v>-0.2173882746049486</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>4.636420996630411</v>
+        <v>4.682452626400399</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.594198273534116</v>
+        <v>3.673082180270585</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.773883635472021</v>
+        <v>1.745973693459821</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7.365536958302712</v>
+        <v>7.362040175356728</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.187980933564556</v>
+        <v>4.179018671558469</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.844324167649958</v>
+        <v>1.875620487518973</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>6.395931439678601</v>
+        <v>6.365716778527797</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.526596292478487</v>
+        <v>3.448691828821634</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.560667415718404</v>
+        <v>1.442229128156658</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>6.505270194851325</v>
+        <v>6.420142097752699</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.107983245843442</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.8347124341046179</v>
+        <v>0.8347124341046182</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.4651485347844926</v>
@@ -1625,7 +1625,7 @@
         <v>0.1158013988672923</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.9968579286869782</v>
+        <v>0.9968579286869784</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.2084078449582203</v>
+        <v>0.2242424935454947</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.0812421538042743</v>
+        <v>-0.09496483296512387</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.8649070840793077</v>
+        <v>0.8445728112496553</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.2139381991518493</v>
+        <v>0.2272298280631165</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.09121582335747692</v>
+        <v>-0.07472937307543426</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5697339720462893</v>
+        <v>0.5629144403119094</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2751714958766003</v>
+        <v>0.2785735798300951</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.03002632279051723</v>
+        <v>-0.03716640022440654</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.760205787960622</v>
+        <v>0.7836264140748891</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.8170331085099132</v>
+        <v>0.8491474305202125</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.4081920258450905</v>
+        <v>0.3959592317878283</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.665164142276369</v>
+        <v>1.662818167041868</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.7471320520437038</v>
+        <v>0.745240304918339</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.3295166708064021</v>
+        <v>0.3425661378558372</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.145259454913678</v>
+        <v>1.140039050342388</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6822260016465443</v>
+        <v>0.6649727336225908</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2981240490774997</v>
+        <v>0.2796944507246378</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.247895423378479</v>
+        <v>1.250482982237115</v>
       </c>
     </row>
     <row r="34">
